--- a/pythondata.xlsx
+++ b/pythondata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f72c30d29a410df/Masaüstü/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f72c30d29a410df/Masaüstü/finish_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="8_{025AF85D-C21F-4A00-BEF1-62C0000F1972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AECF5BF3-8314-499C-9263-815B4F1C4AD0}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="8_{025AF85D-C21F-4A00-BEF1-62C0000F1972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EA5AB72-C724-4AA1-BAF3-3C2FA11FD37C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4DDDD3FC-5805-4672-8E70-7CCE20338C5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4DDDD3FC-5805-4672-8E70-7CCE20338C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="sheetessah" sheetId="4" r:id="rId1"/>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35D3909-E9C9-4DF7-A370-983E1D3F2EAE}">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>330</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="N48">
         <v>0</v>

--- a/pythondata.xlsx
+++ b/pythondata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f72c30d29a410df/Masaüstü/finish_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="8_{025AF85D-C21F-4A00-BEF1-62C0000F1972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EA5AB72-C724-4AA1-BAF3-3C2FA11FD37C}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="8_{025AF85D-C21F-4A00-BEF1-62C0000F1972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E38E95EB-0279-4945-A990-D0B882017936}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4DDDD3FC-5805-4672-8E70-7CCE20338C5B}"/>
   </bookViews>
@@ -19,8 +19,8 @@
     <definedName name="Captable">sheetessah!$L$2:$M$31</definedName>
     <definedName name="Costabler">sheetessah!$A$34:$AD$63</definedName>
     <definedName name="ctable">sheetessah!$C$2:$C$7</definedName>
-    <definedName name="Demtable">sheetessah!$E$2:$J$31</definedName>
     <definedName name="ltable">sheetessah!$A$2:$A$31</definedName>
+    <definedName name="Suptable">sheetessah!$E$2:$J$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
